--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Kiểm soát chất lượng PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Software-Quality-Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Test Steps</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Add Order</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -59,18 +56,6 @@
     <t>Test For Add Order</t>
   </si>
   <si>
-    <t>3TSHOPConnect_AddOrder</t>
-  </si>
-  <si>
-    <t>Click on "Thêm mới" Link</t>
-  </si>
-  <si>
-    <t>It should redirect/open the AddOrder Page.</t>
-  </si>
-  <si>
-    <t>It must redirect/open the Add Order Page.</t>
-  </si>
-  <si>
     <t>Test for Valid inputs on Add Order Page</t>
   </si>
   <si>
@@ -117,6 +102,111 @@
   </si>
   <si>
     <t>Xuất thông báo "Hãy lựa chọn sản phẩm cho đơn hàng !!"</t>
+  </si>
+  <si>
+    <t>Nhập đầy đủ các thông tin đúng</t>
+  </si>
+  <si>
+    <t>Thêm thông tin hóa đơn thành công vào hệ thống.</t>
+  </si>
+  <si>
+    <t>Thêm thông tin hóa đơn thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>TC-01</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>TC-04</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>TC-07</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
   </si>
 </sst>
 </file>
@@ -300,28 +390,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,57 +445,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,266 +767,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="6" t="s">
+    </row>
+    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="J9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="20" t="s">
+      <c r="J10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="15" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="15" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="19"/>
+      <c r="J15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+  <mergeCells count="12">
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="244">
   <si>
     <t>Test Steps</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Bỏ trống trường "Quận huyện"</t>
-  </si>
-  <si>
-    <t>Bỏ trống trường "Tỉnh thành"</t>
   </si>
   <si>
     <t>Bỏ trống trường "Phường xã"</t>
@@ -166,27 +163,9 @@
   <si>
     <t>Họ và tên = "Lê Ngọc Tiến Thành"
 Số điện thoại = "01262898272"
-Chọn tỉnh thành = " "
-Chọn quận huyện = "Ninh Kiều"
-Tên phường, xã = "An Hòa"
-Số nhà, tên đường = "Nguyễn Văn Cừ"
-Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
-  </si>
-  <si>
-    <t>Họ và tên = "Lê Ngọc Tiến Thành"
-Số điện thoại = "01262898272"
 Chọn tỉnh thành = "Cần Thơ"
 Chọn quận huyện = " "
 Tên phường, xã = "An Hòa"
-Số nhà, tên đường = "Nguyễn Văn Cừ"
-Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
-  </si>
-  <si>
-    <t>Họ và tên = "Lê Ngọc Tiến Thành"
-Số điện thoại = "01262898272"
-Chọn tỉnh thành = "Cần Thơ"
-Chọn quận huyện = "Ninh Kiều"
-Tên phường, xã = " "
 Số nhà, tên đường = "Nguyễn Văn Cừ"
 Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
   </si>
@@ -207,6 +186,852 @@
 Tên phường, xã = "An Hòa"
 Số nhà, tên đường = "Nguyễn Văn Cừ"
 Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>TC-12</t>
+  </si>
+  <si>
+    <t>TC-13</t>
+  </si>
+  <si>
+    <t>TC-14</t>
+  </si>
+  <si>
+    <t>TC-15</t>
+  </si>
+  <si>
+    <t>TC-16</t>
+  </si>
+  <si>
+    <t>TC-17</t>
+  </si>
+  <si>
+    <t>TC-18</t>
+  </si>
+  <si>
+    <t>TC-19</t>
+  </si>
+  <si>
+    <t>TC-20</t>
+  </si>
+  <si>
+    <t>TC-21</t>
+  </si>
+  <si>
+    <t>TC-22</t>
+  </si>
+  <si>
+    <t>TC-23</t>
+  </si>
+  <si>
+    <t>TC-24</t>
+  </si>
+  <si>
+    <t>TC-25</t>
+  </si>
+  <si>
+    <t>TC-26</t>
+  </si>
+  <si>
+    <t>TC-27</t>
+  </si>
+  <si>
+    <t>TC-28</t>
+  </si>
+  <si>
+    <t>TC-29</t>
+  </si>
+  <si>
+    <t>TC-30</t>
+  </si>
+  <si>
+    <t>TC-31</t>
+  </si>
+  <si>
+    <t>TC-32</t>
+  </si>
+  <si>
+    <t>TC-33</t>
+  </si>
+  <si>
+    <t>TC-34</t>
+  </si>
+  <si>
+    <t>TC-35</t>
+  </si>
+  <si>
+    <t>TC-36</t>
+  </si>
+  <si>
+    <t>TC-37</t>
+  </si>
+  <si>
+    <t>TC-38</t>
+  </si>
+  <si>
+    <t>TC-39</t>
+  </si>
+  <si>
+    <t>TC-40</t>
+  </si>
+  <si>
+    <t>TC-41</t>
+  </si>
+  <si>
+    <t>TC-42</t>
+  </si>
+  <si>
+    <t>TC-43</t>
+  </si>
+  <si>
+    <t>TC-44</t>
+  </si>
+  <si>
+    <t>TC-45</t>
+  </si>
+  <si>
+    <t>TC-46</t>
+  </si>
+  <si>
+    <t>TC-47</t>
+  </si>
+  <si>
+    <t>TC-48</t>
+  </si>
+  <si>
+    <t>TC-49</t>
+  </si>
+  <si>
+    <t>TC-50</t>
+  </si>
+  <si>
+    <t>TC-51</t>
+  </si>
+  <si>
+    <t>TC-52</t>
+  </si>
+  <si>
+    <t>TC-53</t>
+  </si>
+  <si>
+    <t>TC-54</t>
+  </si>
+  <si>
+    <t>TC-55</t>
+  </si>
+  <si>
+    <t>TC-56</t>
+  </si>
+  <si>
+    <t>TC-57</t>
+  </si>
+  <si>
+    <t>TC-58</t>
+  </si>
+  <si>
+    <t>TC-59</t>
+  </si>
+  <si>
+    <t>TC-60</t>
+  </si>
+  <si>
+    <t>TC-61</t>
+  </si>
+  <si>
+    <t>TC-62</t>
+  </si>
+  <si>
+    <t>TC-63</t>
+  </si>
+  <si>
+    <t>TC-64</t>
+  </si>
+  <si>
+    <t>TC-65</t>
+  </si>
+  <si>
+    <t>TC-66</t>
+  </si>
+  <si>
+    <t>TC-67</t>
+  </si>
+  <si>
+    <t>TC-68</t>
+  </si>
+  <si>
+    <t>TC-69</t>
+  </si>
+  <si>
+    <t>TC-70</t>
+  </si>
+  <si>
+    <t>TC-71</t>
+  </si>
+  <si>
+    <t>TC-72</t>
+  </si>
+  <si>
+    <t>TC-73</t>
+  </si>
+  <si>
+    <t>TC-74</t>
+  </si>
+  <si>
+    <t>TC-75</t>
+  </si>
+  <si>
+    <t>TC-76</t>
+  </si>
+  <si>
+    <t>TC-77</t>
+  </si>
+  <si>
+    <t>TC-78</t>
+  </si>
+  <si>
+    <t>TC-79</t>
+  </si>
+  <si>
+    <t>TC-80</t>
+  </si>
+  <si>
+    <t>TC-81</t>
+  </si>
+  <si>
+    <t>TC-82</t>
+  </si>
+  <si>
+    <t>TC-83</t>
+  </si>
+  <si>
+    <t>TC-84</t>
+  </si>
+  <si>
+    <t>TC-85</t>
+  </si>
+  <si>
+    <t>TC-86</t>
+  </si>
+  <si>
+    <t>TC-87</t>
+  </si>
+  <si>
+    <t>TC-88</t>
+  </si>
+  <si>
+    <t>TC-89</t>
+  </si>
+  <si>
+    <t>TC-90</t>
+  </si>
+  <si>
+    <t>TC-91</t>
+  </si>
+  <si>
+    <t>TC-92</t>
+  </si>
+  <si>
+    <t>TC-93</t>
+  </si>
+  <si>
+    <t>TC-94</t>
+  </si>
+  <si>
+    <t>TC-95</t>
+  </si>
+  <si>
+    <t>TC-96</t>
+  </si>
+  <si>
+    <t>TC-97</t>
+  </si>
+  <si>
+    <t>TC-98</t>
+  </si>
+  <si>
+    <t>TC-99</t>
+  </si>
+  <si>
+    <t>TC-100</t>
+  </si>
+  <si>
+    <t>TC-101</t>
+  </si>
+  <si>
+    <t>TC-102</t>
+  </si>
+  <si>
+    <t>TC-103</t>
+  </si>
+  <si>
+    <t>TC-104</t>
+  </si>
+  <si>
+    <t>TC-105</t>
+  </si>
+  <si>
+    <t>TC-106</t>
+  </si>
+  <si>
+    <t>TC-107</t>
+  </si>
+  <si>
+    <t>TC-108</t>
+  </si>
+  <si>
+    <t>TC-109</t>
+  </si>
+  <si>
+    <t>TC-110</t>
+  </si>
+  <si>
+    <t>TC-111</t>
+  </si>
+  <si>
+    <t>TC-112</t>
+  </si>
+  <si>
+    <t>TC-113</t>
+  </si>
+  <si>
+    <t>TC-114</t>
+  </si>
+  <si>
+    <t>TC-115</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" và "Số điện thoại"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" và "Tên phường/xã"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ trống trường "Họ và tên" và "Số nhà, tên đường" </t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" và "Chọn quận huyện"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Tỉnh thành" và "Quận huyện"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" và "Tỉnh thành" và "Quận huyện"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại" và "Tỉnh thành", "Quận huyện"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại" và "Quận huyện"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại" và "Tên Phường xã"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại" và "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Chọn tỉnh thành" "Chọn quận huyện"  và "Tên phường xã"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Chọn tỉnh thành" "Chọn quận huyện" và "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Chọn tỉnh thành" "Chọn quận huyện" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Quận huyện" và "Tên phường xã"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ trống trường "Quận huyện" và "Số nhà, tên đường" </t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Quận huyện" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Tên phường xã" và "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Tên phường xã" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số nhà, tên đường" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = " "
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Số điện thoại", "Chọn tình thành" và "Chọn Quận huyện"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Số điện thoại" và "Chọn Quận huyện"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Số điện thoại" và "Tên phường xã"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Số điện thoại" và " Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Số điện thoại" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Chọn tỉnh thành" và "Chọn quận huyện"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Chọn tỉnh thành" và "Chọn quận huyện" "Tên phường xã"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Chọn tỉnh thành" và "Chọn quận huyện" "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên", "Chọn tỉnh thành" và "Chọn quận huyện" "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" "Chọn quận huyện" "Tên phường xã"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" "Chọn quận huyện" "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" "Chọn quận huyện" "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại", "Chọn tỉnh thành" "Chọn quận huyện"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại", "Chọn tỉnh thành" "Chọn quận huyện" và "Tên phường xã"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại", "Chọn tỉnh thành" "Chọn quận huyện" và "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại", "Chọn tỉnh thành" "Chọn quận huyện" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = " "
+Chọn quận huyện = " "
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" "Tên phường xã" và "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" "Tên phường xã" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Họ và tên" "Số nhà, tên đường" và "Sản phẩm"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Họ và tên = " "
+Số điện thoại = "01262898272"
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = "Ninh Kiều"
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = " "</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại", Chọn quận huyện" và "Tên phường xã"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = " "
+Số nhà, tên đường = "Nguyễn Văn Cừ"
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường "Số điện thoại", Chọn quận huyện" và "Số nhà, tên đường"</t>
+  </si>
+  <si>
+    <t>Họ và tên = "Lê Ngọc Tiến Thành"
+Số điện thoại = " "
+Chọn tỉnh thành = "Cần Thơ"
+Chọn quận huyện = " "
+Tên phường, xã = "An Hòa"
+Số nhà, tên đường = " "
+Sản phẩm = "Áo sơ mi Hàn Quốc cam trơn"</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Testing Type</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>System  Testing</t>
+  </si>
+  <si>
+    <t>Test Case version</t>
+  </si>
+  <si>
+    <t>Test case Prepared By</t>
+  </si>
+  <si>
+    <t>Testcase Reviewed By/Date</t>
+  </si>
+  <si>
+    <t>Test Case Cycle No</t>
+  </si>
+  <si>
+    <t>Testing Done By</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Tiến Thành</t>
+  </si>
+  <si>
+    <t>Website 3T-Shop</t>
   </si>
 </sst>
 </file>
@@ -238,7 +1063,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +1094,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -386,11 +1217,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,7 +1289,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,21 +1379,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -474,15 +1389,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,10 +1671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,282 +1691,2897 @@
     <col min="9" max="9" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K8" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="2:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="8" t="s">
+      <c r="C13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="H13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="C14" s="29" t="s">
         <v>11</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" ht="102" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>20</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
-        <v>36</v>
+    <row r="15" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="7"/>
+      <c r="C22" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="11"/>
+      <c r="J61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="11"/>
+      <c r="J66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="11"/>
+      <c r="J69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="11"/>
+      <c r="J70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B71" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="11"/>
+      <c r="J71" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B72" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="11"/>
+      <c r="J72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B73" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="11"/>
+      <c r="J73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="11"/>
+      <c r="J74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="11"/>
+      <c r="J75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B76" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="11"/>
+      <c r="J77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="11"/>
+      <c r="J78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B79" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="11"/>
+      <c r="J79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B81" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B82" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="11"/>
+      <c r="J82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B83" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="11"/>
+      <c r="J86" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="11"/>
+      <c r="J87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B88" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B89" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="11"/>
+      <c r="J89" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B90" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="11"/>
+      <c r="J90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="11"/>
+      <c r="J91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B93" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="11"/>
+      <c r="J93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="11"/>
+      <c r="J94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B95" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="11"/>
+      <c r="J95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B96" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="11"/>
+      <c r="J96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B97" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="11"/>
+      <c r="J97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B98" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="11"/>
+      <c r="J98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B99" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="11"/>
+      <c r="J99" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B100" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B101" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="11"/>
+      <c r="J101" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B102" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="11"/>
+      <c r="J102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B103" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="11"/>
+      <c r="J103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B104" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="11"/>
+      <c r="J104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B105" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="11"/>
+      <c r="J105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B106" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="11"/>
+      <c r="J106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B107" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="11"/>
+      <c r="J107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B108" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="11"/>
+      <c r="J108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B109" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="11"/>
+      <c r="J109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B110" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="11"/>
+      <c r="J110" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B111" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="11"/>
+      <c r="J111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B112" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="11"/>
+      <c r="J112" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B113" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="11"/>
+      <c r="J113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B114" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="J114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B115" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="11"/>
+      <c r="J115" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B116" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B117" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B118" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="11"/>
+      <c r="J118" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B119" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="11"/>
+      <c r="J119" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B120" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="11"/>
+      <c r="J120" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B121" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="11"/>
+      <c r="J121" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K121" s="7"/>
+    </row>
+    <row r="122" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B122" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="11"/>
+      <c r="J122" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K122" s="7"/>
+    </row>
+    <row r="123" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B123" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="11"/>
+      <c r="J123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K123" s="7"/>
+    </row>
+    <row r="124" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B124" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="11"/>
+      <c r="J124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K124" s="7"/>
+    </row>
+    <row r="125" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B125" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K125" s="7"/>
+    </row>
+    <row r="126" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B126" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K126" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:F7"/>
+  <mergeCells count="136">
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C126:F126"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="B10:K10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="5" fitToHeight="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>